--- a/shiny_app/data/expectations.xlsx
+++ b/shiny_app/data/expectations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliottdetjen/Desktop/RProjects/Social_Connections_2024(6)/shiny_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6764CF5A-8AF8-414A-87B3-85EE57E05290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018245BE-016C-4A43-B1AA-73D05FD4F223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2460" windowWidth="22760" windowHeight="14880" xr2:uid="{A3AF10D3-96DD-2A4C-995C-90988ABDF8E0}"/>
   </bookViews>
